--- a/models/calculation engines/economic_overlay/outputs/choosen_mine/Tonnages_kt.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/choosen_mine/Tonnages_kt.xlsx
@@ -558,64 +558,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.43234379142625</v>
+        <v>10.45416318635281</v>
       </c>
       <c r="C2" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D2" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E2" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F2" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G2" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H2" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I2" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J2" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K2" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N2" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O2" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P2" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R2" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S2" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T2" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U2" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -631,64 +631,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.811795113809215</v>
+        <v>9.834548155105756</v>
       </c>
       <c r="C3" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D3" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E3" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F3" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G3" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H3" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I3" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J3" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K3" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N3" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O3" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P3" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q3" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R3" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S3" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T3" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U3" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -704,64 +704,64 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.138821491683055</v>
+        <v>9.156391197352919</v>
       </c>
       <c r="C4" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D4" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E4" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F4" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G4" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H4" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I4" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J4" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K4" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N4" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O4" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P4" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R4" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S4" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T4" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U4" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -777,64 +777,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.428581950109734</v>
+        <v>8.437097249924284</v>
       </c>
       <c r="C5" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D5" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E5" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F5" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G5" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H5" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I5" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J5" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K5" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N5" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O5" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P5" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R5" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S5" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T5" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U5" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -850,64 +850,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.75467513281789</v>
+        <v>7.753916615590999</v>
       </c>
       <c r="C6" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D6" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E6" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F6" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G6" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H6" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I6" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J6" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K6" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N6" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O6" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P6" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R6" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S6" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T6" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U6" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -923,64 +923,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.154754223821947</v>
+        <v>7.146686767618963</v>
       </c>
       <c r="C7" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D7" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E7" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F7" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G7" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H7" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I7" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J7" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K7" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N7" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O7" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P7" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q7" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R7" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S7" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T7" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U7" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -996,64 +996,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.641573103834406</v>
+        <v>6.628902294742623</v>
       </c>
       <c r="C8" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D8" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E8" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F8" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G8" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H8" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I8" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J8" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K8" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N8" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O8" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P8" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q8" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R8" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S8" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T8" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U8" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1069,64 +1069,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.213918592234864</v>
+        <v>6.199235541751619</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D9" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E9" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F9" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G9" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H9" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I9" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J9" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K9" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N9" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O9" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P9" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q9" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R9" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S9" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T9" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U9" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1142,64 +1142,64 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.864031156059455</v>
+        <v>5.849447121190248</v>
       </c>
       <c r="C10" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D10" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E10" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F10" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G10" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H10" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I10" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J10" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K10" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N10" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O10" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P10" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q10" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R10" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S10" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T10" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U10" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1215,64 +1215,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5.581834784397747</v>
+        <v>5.568893389563018</v>
       </c>
       <c r="C11" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D11" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E11" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F11" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G11" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H11" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I11" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J11" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K11" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N11" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O11" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P11" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R11" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S11" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T11" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U11" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1288,64 +1288,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.35704925781691</v>
+        <v>5.346762012691582</v>
       </c>
       <c r="C12" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D12" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E12" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F12" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G12" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H12" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I12" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J12" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K12" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N12" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O12" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P12" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R12" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S12" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T12" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U12" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1361,64 +1361,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.180090012911951</v>
+        <v>5.173012245571537</v>
       </c>
       <c r="C13" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D13" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E13" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F13" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G13" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H13" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I13" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J13" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K13" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N13" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O13" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P13" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R13" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S13" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T13" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U13" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1434,64 +1434,64 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.042337968115827</v>
+        <v>5.038649358876158</v>
       </c>
       <c r="C14" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D14" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E14" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F14" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G14" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H14" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I14" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J14" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K14" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N14" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O14" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P14" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R14" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S14" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T14" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U14" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1507,64 +1507,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.936107640587633</v>
+        <v>4.935686319872472</v>
       </c>
       <c r="C15" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D15" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E15" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F15" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G15" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H15" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I15" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J15" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K15" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N15" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O15" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P15" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R15" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S15" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T15" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U15" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1580,64 +1580,64 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.854478716833431</v>
+        <v>4.856969059701494</v>
       </c>
       <c r="C16" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D16" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E16" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F16" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G16" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H16" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I16" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J16" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K16" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N16" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O16" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P16" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R16" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S16" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T16" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U16" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1653,64 +1653,64 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.791051480420596</v>
+        <v>4.795929798551478</v>
       </c>
       <c r="C17" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D17" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E17" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F17" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G17" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H17" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I17" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J17" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K17" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N17" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O17" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P17" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R17" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S17" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T17" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U17" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1726,64 +1726,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.739588305217119</v>
+        <v>4.74623124538483</v>
       </c>
       <c r="C18" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D18" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E18" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F18" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G18" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H18" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I18" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J18" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K18" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N18" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O18" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P18" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R18" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S18" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T18" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U18" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1799,64 +1799,64 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.693274917048557</v>
+        <v>4.701034105618809</v>
       </c>
       <c r="C19" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D19" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E19" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F19" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G19" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H19" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I19" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J19" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K19" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N19" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O19" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P19" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R19" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S19" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T19" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U19" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1872,64 +1872,64 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.642065839413932</v>
+        <v>4.650348079280689</v>
       </c>
       <c r="C20" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D20" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E20" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F20" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G20" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H20" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I20" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J20" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K20" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N20" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O20" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P20" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R20" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S20" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T20" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U20" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -1945,64 +1945,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.447320093769219</v>
+        <v>4.455449176159257</v>
       </c>
       <c r="C21" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="D21" t="n">
-        <v>443.0715186791086</v>
+        <v>369.2262655659238</v>
       </c>
       <c r="E21" t="n">
-        <v>443.0715187854456</v>
+        <v>369.226265654538</v>
       </c>
       <c r="F21" t="n">
-        <v>569.6633815538204</v>
+        <v>474.7194846281835</v>
       </c>
       <c r="G21" t="n">
-        <v>569.6633804904487</v>
+        <v>474.7194837420404</v>
       </c>
       <c r="H21" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="I21" t="n">
-        <v>569.6633815538206</v>
+        <v>474.7194846281838</v>
       </c>
       <c r="J21" t="n">
-        <v>569.6633815538198</v>
+        <v>474.7194846281831</v>
       </c>
       <c r="K21" t="n">
-        <v>75.95511704427</v>
+        <v>63.29593087022499</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="N21" t="n">
-        <v>49.23016874212318</v>
+        <v>123.0754218553079</v>
       </c>
       <c r="O21" t="n">
-        <v>49.23016875393841</v>
+        <v>123.075421884846</v>
       </c>
       <c r="P21" t="n">
-        <v>63.29593128375782</v>
+        <v>158.2398282093945</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.29593116560541</v>
+        <v>158.2398279140135</v>
       </c>
       <c r="R21" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="S21" t="n">
-        <v>63.29593128375785</v>
+        <v>158.2398282093946</v>
       </c>
       <c r="T21" t="n">
-        <v>63.29593128375775</v>
+        <v>158.2398282093943</v>
       </c>
       <c r="U21" t="n">
-        <v>8.439457449363333</v>
+        <v>21.09864362340833</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
